--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.843895643341168</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H2">
-        <v>0.843895643341168</v>
+        <v>3.217294</v>
       </c>
       <c r="I2">
-        <v>0.2763466094011995</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J2">
-        <v>0.2763466094011995</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.56101255241274</v>
+        <v>7.502293333333333</v>
       </c>
       <c r="N2">
-        <v>6.56101255241274</v>
+        <v>22.50688</v>
       </c>
       <c r="O2">
-        <v>0.08527965280525798</v>
+        <v>0.09119883294046149</v>
       </c>
       <c r="P2">
-        <v>0.08527965280525798</v>
+        <v>0.1003892655001884</v>
       </c>
       <c r="Q2">
-        <v>5.536809908887828</v>
+        <v>8.045694442524445</v>
       </c>
       <c r="R2">
-        <v>5.536809908887828</v>
+        <v>72.41124998271999</v>
       </c>
       <c r="S2">
-        <v>0.02356674290364453</v>
+        <v>0.02680838380739609</v>
       </c>
       <c r="T2">
-        <v>0.02356674290364453</v>
+        <v>0.03403357749937123</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.843895643341168</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H3">
-        <v>0.843895643341168</v>
+        <v>3.217294</v>
       </c>
       <c r="I3">
-        <v>0.2763466094011995</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J3">
-        <v>0.2763466094011995</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>17.5415839943177</v>
+        <v>18.952812</v>
       </c>
       <c r="N3">
-        <v>17.5415839943177</v>
+        <v>56.858436</v>
       </c>
       <c r="O3">
-        <v>0.2280044704592995</v>
+        <v>0.2303927957149068</v>
       </c>
       <c r="P3">
-        <v>0.2280044704592995</v>
+        <v>0.2536103017179399</v>
       </c>
       <c r="Q3">
-        <v>14.80326631010787</v>
+        <v>20.325589443576</v>
       </c>
       <c r="R3">
-        <v>14.80326631010787</v>
+        <v>182.930304992184</v>
       </c>
       <c r="S3">
-        <v>0.06300826233974337</v>
+        <v>0.06772519225127013</v>
       </c>
       <c r="T3">
-        <v>0.06300826233974337</v>
+        <v>0.08597797598330108</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.843895643341168</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H4">
-        <v>0.843895643341168</v>
+        <v>3.217294</v>
       </c>
       <c r="I4">
-        <v>0.2763466094011995</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J4">
-        <v>0.2763466094011995</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.8451969088596</v>
+        <v>15.88691333333333</v>
       </c>
       <c r="N4">
-        <v>15.8451969088596</v>
+        <v>47.66074</v>
       </c>
       <c r="O4">
-        <v>0.2059549315328741</v>
+        <v>0.1931233411773987</v>
       </c>
       <c r="P4">
-        <v>0.2059549315328741</v>
+        <v>0.2125850709558787</v>
       </c>
       <c r="Q4">
-        <v>13.37169263926956</v>
+        <v>17.03762364861777</v>
       </c>
       <c r="R4">
-        <v>13.37169263926956</v>
+        <v>153.33861283756</v>
       </c>
       <c r="S4">
-        <v>0.05691494701856595</v>
+        <v>0.05676963712715912</v>
       </c>
       <c r="T4">
-        <v>0.05691494701856595</v>
+        <v>0.07206976215572228</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.843895643341168</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H5">
-        <v>0.843895643341168</v>
+        <v>3.217294</v>
       </c>
       <c r="I5">
-        <v>0.2763466094011995</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J5">
-        <v>0.2763466094011995</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.2306558167639</v>
+        <v>17.32798133333333</v>
       </c>
       <c r="N5">
-        <v>17.2306558167639</v>
+        <v>51.983944</v>
       </c>
       <c r="O5">
-        <v>0.2239630444115153</v>
+        <v>0.2106411472599626</v>
       </c>
       <c r="P5">
-        <v>0.2239630444115153</v>
+        <v>0.2318682090082199</v>
       </c>
       <c r="Q5">
-        <v>14.54087537567821</v>
+        <v>18.58307012528178</v>
       </c>
       <c r="R5">
-        <v>14.54087537567821</v>
+        <v>167.247631127536</v>
       </c>
       <c r="S5">
-        <v>0.06189142795429253</v>
+        <v>0.06191908974385545</v>
       </c>
       <c r="T5">
-        <v>0.06189142795429253</v>
+        <v>0.07860705645771313</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.843895643341168</v>
+        <v>1.072431333333333</v>
       </c>
       <c r="H6">
-        <v>0.843895643341168</v>
+        <v>3.217294</v>
       </c>
       <c r="I6">
-        <v>0.2763466094011995</v>
+        <v>0.2939553384953704</v>
       </c>
       <c r="J6">
-        <v>0.2763466094011995</v>
+        <v>0.3390161022675017</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.756814141479</v>
+        <v>22.593041</v>
       </c>
       <c r="N6">
-        <v>19.756814141479</v>
+        <v>45.186082</v>
       </c>
       <c r="O6">
-        <v>0.256797900791053</v>
+        <v>0.2746438829072707</v>
       </c>
       <c r="P6">
-        <v>0.256797900791053</v>
+        <v>0.2015471528177732</v>
       </c>
       <c r="Q6">
-        <v>16.67268938029531</v>
+        <v>24.22948508368466</v>
       </c>
       <c r="R6">
-        <v>16.67268938029531</v>
+        <v>145.376910502108</v>
       </c>
       <c r="S6">
-        <v>0.0709652291849531</v>
+        <v>0.08073303556568961</v>
       </c>
       <c r="T6">
-        <v>0.0709652291849531</v>
+        <v>0.06832773017139397</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8506916160840849</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H7">
-        <v>0.8506916160840849</v>
+        <v>3.36251</v>
       </c>
       <c r="I7">
-        <v>0.278572055213021</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J7">
-        <v>0.278572055213021</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.56101255241274</v>
+        <v>7.502293333333333</v>
       </c>
       <c r="N7">
-        <v>6.56101255241274</v>
+        <v>22.50688</v>
       </c>
       <c r="O7">
-        <v>0.08527965280525798</v>
+        <v>0.09119883294046149</v>
       </c>
       <c r="P7">
-        <v>0.08527965280525798</v>
+        <v>0.1003892655001884</v>
       </c>
       <c r="Q7">
-        <v>5.581398371359962</v>
+        <v>8.408845452088888</v>
       </c>
       <c r="R7">
-        <v>5.581398371359962</v>
+        <v>75.6796090688</v>
       </c>
       <c r="S7">
-        <v>0.02375652814981359</v>
+        <v>0.02801840883556412</v>
       </c>
       <c r="T7">
-        <v>0.02375652814981359</v>
+        <v>0.03556971935962669</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8506916160840849</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H8">
-        <v>0.8506916160840849</v>
+        <v>3.36251</v>
       </c>
       <c r="I8">
-        <v>0.278572055213021</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J8">
-        <v>0.278572055213021</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.5415839943177</v>
+        <v>18.952812</v>
       </c>
       <c r="N8">
-        <v>17.5415839943177</v>
+        <v>56.858436</v>
       </c>
       <c r="O8">
-        <v>0.2280044704592995</v>
+        <v>0.2303927957149068</v>
       </c>
       <c r="P8">
-        <v>0.2280044704592995</v>
+        <v>0.2536103017179399</v>
       </c>
       <c r="Q8">
-        <v>14.92247843680084</v>
+        <v>21.24300662604</v>
       </c>
       <c r="R8">
-        <v>14.92247843680084</v>
+        <v>191.18705963436</v>
       </c>
       <c r="S8">
-        <v>0.06351567393360361</v>
+        <v>0.07078204111803844</v>
       </c>
       <c r="T8">
-        <v>0.06351567393360361</v>
+        <v>0.08985868373347594</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8506916160840849</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H9">
-        <v>0.8506916160840849</v>
+        <v>3.36251</v>
       </c>
       <c r="I9">
-        <v>0.278572055213021</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J9">
-        <v>0.278572055213021</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.8451969088596</v>
+        <v>15.88691333333333</v>
       </c>
       <c r="N9">
-        <v>15.8451969088596</v>
+        <v>47.66074</v>
       </c>
       <c r="O9">
-        <v>0.2059549315328741</v>
+        <v>0.1931233411773987</v>
       </c>
       <c r="P9">
-        <v>0.2059549315328741</v>
+        <v>0.2125850709558787</v>
       </c>
       <c r="Q9">
-        <v>13.47937616556832</v>
+        <v>17.80663498415555</v>
       </c>
       <c r="R9">
-        <v>13.47937616556832</v>
+        <v>160.2597148574</v>
       </c>
       <c r="S9">
-        <v>0.05737328855836978</v>
+        <v>0.05933199531545573</v>
       </c>
       <c r="T9">
-        <v>0.05737328855836978</v>
+        <v>0.07532270782410241</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8506916160840849</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H10">
-        <v>0.8506916160840849</v>
+        <v>3.36251</v>
       </c>
       <c r="I10">
-        <v>0.278572055213021</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J10">
-        <v>0.278572055213021</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.2306558167639</v>
+        <v>17.32798133333333</v>
       </c>
       <c r="N10">
-        <v>17.2306558167639</v>
+        <v>51.983944</v>
       </c>
       <c r="O10">
-        <v>0.2239630444115153</v>
+        <v>0.2106411472599626</v>
       </c>
       <c r="P10">
-        <v>0.2239630444115153</v>
+        <v>0.2318682090082199</v>
       </c>
       <c r="Q10">
-        <v>14.65797444295152</v>
+        <v>19.42183683771556</v>
       </c>
       <c r="R10">
-        <v>14.65797444295152</v>
+        <v>174.79653153944</v>
       </c>
       <c r="S10">
-        <v>0.06238984557348094</v>
+        <v>0.06471387397440563</v>
       </c>
       <c r="T10">
-        <v>0.06238984557348094</v>
+        <v>0.0821550698846997</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8506916160840849</v>
+        <v>1.120836666666667</v>
       </c>
       <c r="H11">
-        <v>0.8506916160840849</v>
+        <v>3.36251</v>
       </c>
       <c r="I11">
-        <v>0.278572055213021</v>
+        <v>0.307223326573222</v>
       </c>
       <c r="J11">
-        <v>0.278572055213021</v>
+        <v>0.35431795603246</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.756814141479</v>
+        <v>22.593041</v>
       </c>
       <c r="N11">
-        <v>19.756814141479</v>
+        <v>45.186082</v>
       </c>
       <c r="O11">
-        <v>0.256797900791053</v>
+        <v>0.2746438829072707</v>
       </c>
       <c r="P11">
-        <v>0.256797900791053</v>
+        <v>0.2015471528177732</v>
       </c>
       <c r="Q11">
-        <v>16.80695615068768</v>
+        <v>25.32310876430333</v>
       </c>
       <c r="R11">
-        <v>16.80695615068768</v>
+        <v>151.93865258582</v>
       </c>
       <c r="S11">
-        <v>0.07153671899775312</v>
+        <v>0.08437700732975817</v>
       </c>
       <c r="T11">
-        <v>0.07153671899775312</v>
+        <v>0.07141177523055524</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.35917064688581</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H12">
-        <v>1.35917064688581</v>
+        <v>0.000793</v>
       </c>
       <c r="I12">
-        <v>0.4450813353857795</v>
+        <v>7.245423745135779E-05</v>
       </c>
       <c r="J12">
-        <v>0.4450813353857795</v>
+        <v>8.356083376220166E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.56101255241274</v>
+        <v>7.502293333333333</v>
       </c>
       <c r="N12">
-        <v>6.56101255241274</v>
+        <v>22.50688</v>
       </c>
       <c r="O12">
-        <v>0.08527965280525798</v>
+        <v>0.09119883294046149</v>
       </c>
       <c r="P12">
-        <v>0.08527965280525798</v>
+        <v>0.1003892655001884</v>
       </c>
       <c r="Q12">
-        <v>8.917535675088743</v>
+        <v>0.001983106204444445</v>
       </c>
       <c r="R12">
-        <v>8.917535675088743</v>
+        <v>0.01784795584</v>
       </c>
       <c r="S12">
-        <v>0.03795638175179986</v>
+        <v>6.607741897154908E-06</v>
       </c>
       <c r="T12">
-        <v>0.03795638175179986</v>
+        <v>8.388610725970765E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>1.35917064688581</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H13">
-        <v>1.35917064688581</v>
+        <v>0.000793</v>
       </c>
       <c r="I13">
-        <v>0.4450813353857795</v>
+        <v>7.245423745135779E-05</v>
       </c>
       <c r="J13">
-        <v>0.4450813353857795</v>
+        <v>8.356083376220166E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.5415839943177</v>
+        <v>18.952812</v>
       </c>
       <c r="N13">
-        <v>17.5415839943177</v>
+        <v>56.858436</v>
       </c>
       <c r="O13">
-        <v>0.2280044704592995</v>
+        <v>0.2303927957149068</v>
       </c>
       <c r="P13">
-        <v>0.2280044704592995</v>
+        <v>0.2536103017179399</v>
       </c>
       <c r="Q13">
-        <v>23.84200606495856</v>
+        <v>0.005009859971999999</v>
       </c>
       <c r="R13">
-        <v>23.84200606495856</v>
+        <v>0.045088739748</v>
       </c>
       <c r="S13">
-        <v>0.1014805341859526</v>
+        <v>1.669293432781002E-05</v>
       </c>
       <c r="T13">
-        <v>0.1014805341859526</v>
+        <v>2.119188826223458E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.35917064688581</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H14">
-        <v>1.35917064688581</v>
+        <v>0.000793</v>
       </c>
       <c r="I14">
-        <v>0.4450813353857795</v>
+        <v>7.245423745135779E-05</v>
       </c>
       <c r="J14">
-        <v>0.4450813353857795</v>
+        <v>8.356083376220166E-05</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.8451969088596</v>
+        <v>15.88691333333333</v>
       </c>
       <c r="N14">
-        <v>15.8451969088596</v>
+        <v>47.66074</v>
       </c>
       <c r="O14">
-        <v>0.2059549315328741</v>
+        <v>0.1931233411773987</v>
       </c>
       <c r="P14">
-        <v>0.2059549315328741</v>
+        <v>0.2125850709558787</v>
       </c>
       <c r="Q14">
-        <v>21.53632653264774</v>
+        <v>0.004199440757777778</v>
       </c>
       <c r="R14">
-        <v>21.53632653264774</v>
+        <v>0.03779496682</v>
       </c>
       <c r="S14">
-        <v>0.09166669595593842</v>
+        <v>1.399260441906683E-05</v>
       </c>
       <c r="T14">
-        <v>0.09166669595593842</v>
+        <v>1.776378577447002E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.35917064688581</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H15">
-        <v>1.35917064688581</v>
+        <v>0.000793</v>
       </c>
       <c r="I15">
-        <v>0.4450813353857795</v>
+        <v>7.245423745135779E-05</v>
       </c>
       <c r="J15">
-        <v>0.4450813353857795</v>
+        <v>8.356083376220166E-05</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.2306558167639</v>
+        <v>17.32798133333333</v>
       </c>
       <c r="N15">
-        <v>17.2306558167639</v>
+        <v>51.983944</v>
       </c>
       <c r="O15">
-        <v>0.2239630444115153</v>
+        <v>0.2106411472599626</v>
       </c>
       <c r="P15">
-        <v>0.2239630444115153</v>
+        <v>0.2318682090082199</v>
       </c>
       <c r="Q15">
-        <v>23.41940161273773</v>
+        <v>0.004580363065777778</v>
       </c>
       <c r="R15">
-        <v>23.41940161273773</v>
+        <v>0.041223267592</v>
       </c>
       <c r="S15">
-        <v>0.0996817708837419</v>
+        <v>1.526184370059975E-05</v>
       </c>
       <c r="T15">
-        <v>0.0996817708837419</v>
+        <v>1.937510086767529E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.0002643333333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.000793</v>
+      </c>
+      <c r="I16">
+        <v>7.245423745135779E-05</v>
+      </c>
+      <c r="J16">
+        <v>8.356083376220166E-05</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>22.593041</v>
+      </c>
+      <c r="N16">
+        <v>45.186082</v>
+      </c>
+      <c r="O16">
+        <v>0.2746438829072707</v>
+      </c>
+      <c r="P16">
+        <v>0.2015471528177732</v>
+      </c>
+      <c r="Q16">
+        <v>0.005972093837666666</v>
+      </c>
+      <c r="R16">
+        <v>0.035832563026</v>
+      </c>
+      <c r="S16">
+        <v>1.989911310672629E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.6841448131851E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.4547475</v>
+      </c>
+      <c r="H17">
+        <v>2.909495</v>
+      </c>
+      <c r="I17">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J17">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.502293333333333</v>
+      </c>
+      <c r="N17">
+        <v>22.50688</v>
+      </c>
+      <c r="O17">
+        <v>0.09119883294046149</v>
+      </c>
+      <c r="P17">
+        <v>0.1003892655001884</v>
+      </c>
+      <c r="Q17">
+        <v>10.91394247093333</v>
+      </c>
+      <c r="R17">
+        <v>65.48365482559998</v>
+      </c>
+      <c r="S17">
+        <v>0.03636543255560413</v>
+      </c>
+      <c r="T17">
+        <v>0.03077758003046445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.4547475</v>
+      </c>
+      <c r="H18">
+        <v>2.909495</v>
+      </c>
+      <c r="I18">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J18">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>18.952812</v>
+      </c>
+      <c r="N18">
+        <v>56.858436</v>
+      </c>
+      <c r="O18">
+        <v>0.2303927957149068</v>
+      </c>
+      <c r="P18">
+        <v>0.2536103017179399</v>
+      </c>
+      <c r="Q18">
+        <v>27.57155587497</v>
+      </c>
+      <c r="R18">
+        <v>165.42933524982</v>
+      </c>
+      <c r="S18">
+        <v>0.0918688694112704</v>
+      </c>
+      <c r="T18">
+        <v>0.07775245011290063</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.4547475</v>
+      </c>
+      <c r="H19">
+        <v>2.909495</v>
+      </c>
+      <c r="I19">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J19">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>15.88691333333333</v>
+      </c>
+      <c r="N19">
+        <v>47.66074</v>
+      </c>
+      <c r="O19">
+        <v>0.1931233411773987</v>
+      </c>
+      <c r="P19">
+        <v>0.2125850709558787</v>
+      </c>
+      <c r="Q19">
+        <v>23.11144745438333</v>
+      </c>
+      <c r="R19">
+        <v>138.6686847263</v>
+      </c>
+      <c r="S19">
+        <v>0.07700771613036475</v>
+      </c>
+      <c r="T19">
+        <v>0.06517483719027951</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.35917064688581</v>
-      </c>
-      <c r="H16">
-        <v>1.35917064688581</v>
-      </c>
-      <c r="I16">
-        <v>0.4450813353857795</v>
-      </c>
-      <c r="J16">
-        <v>0.4450813353857795</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>19.756814141479</v>
-      </c>
-      <c r="N16">
-        <v>19.756814141479</v>
-      </c>
-      <c r="O16">
-        <v>0.256797900791053</v>
-      </c>
-      <c r="P16">
-        <v>0.256797900791053</v>
-      </c>
-      <c r="Q16">
-        <v>26.85288185707673</v>
-      </c>
-      <c r="R16">
-        <v>26.85288185707673</v>
-      </c>
-      <c r="S16">
-        <v>0.1142959526083468</v>
-      </c>
-      <c r="T16">
-        <v>0.1142959526083468</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.4547475</v>
+      </c>
+      <c r="H20">
+        <v>2.909495</v>
+      </c>
+      <c r="I20">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J20">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>17.32798133333333</v>
+      </c>
+      <c r="N20">
+        <v>51.983944</v>
+      </c>
+      <c r="O20">
+        <v>0.2106411472599626</v>
+      </c>
+      <c r="P20">
+        <v>0.2318682090082199</v>
+      </c>
+      <c r="Q20">
+        <v>25.20783752471333</v>
+      </c>
+      <c r="R20">
+        <v>151.24702514828</v>
+      </c>
+      <c r="S20">
+        <v>0.08399292169800088</v>
+      </c>
+      <c r="T20">
+        <v>0.07108670756493937</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.4547475</v>
+      </c>
+      <c r="H21">
+        <v>2.909495</v>
+      </c>
+      <c r="I21">
+        <v>0.3987488806939563</v>
+      </c>
+      <c r="J21">
+        <v>0.306582380866276</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>22.593041</v>
+      </c>
+      <c r="N21">
+        <v>45.186082</v>
+      </c>
+      <c r="O21">
+        <v>0.2746438829072707</v>
+      </c>
+      <c r="P21">
+        <v>0.2015471528177732</v>
+      </c>
+      <c r="Q21">
+        <v>32.8671699121475</v>
+      </c>
+      <c r="R21">
+        <v>131.46867964859</v>
+      </c>
+      <c r="S21">
+        <v>0.1095139408987162</v>
+      </c>
+      <c r="T21">
+        <v>0.06179080596769207</v>
       </c>
     </row>
   </sheetData>
